--- a/requerimientos.xlsx
+++ b/requerimientos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansol\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansol\Documents\GitHub\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{580BEA6B-5EF0-48B9-97B4-A9772847F723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B13427-E408-449F-90B3-E2DBB7ADE5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1E7B37D9-5334-45F2-9016-EE10F39752AC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Modelo de busqueda(data Mining Google place)</t>
   </si>
@@ -94,13 +94,19 @@
   </si>
   <si>
     <t>creacion de la api(ruta de coordenadas)</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>radio de porohibicion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +124,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,11 +199,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -506,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F40E54-DC71-474A-8020-52DB7E2F2F6F}">
-  <dimension ref="B3:D26"/>
+  <dimension ref="B3:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,47 +621,65 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/requerimientos.xlsx
+++ b/requerimientos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansol\Documents\GitHub\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B13427-E408-449F-90B3-E2DBB7ADE5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9B223-C181-4AD8-A686-1DA010AAA17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1E7B37D9-5334-45F2-9016-EE10F39752AC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{1E7B37D9-5334-45F2-9016-EE10F39752AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Modelo de busqueda(data Mining Google place)</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t>radio de porohibicion</t>
   </si>
 </sst>
 </file>
@@ -524,7 +521,7 @@
   <dimension ref="B3:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,11 +667,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
